--- a/DATA PPC ORDER aug 2019 R.1 - Copy.xlsx
+++ b/DATA PPC ORDER aug 2019 R.1 - Copy.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\SAI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/Load-vs-capacity-planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FB6561-5A6A-3240-ABB2-51D4B249A982}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="20052" windowHeight="8448"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PPC DATA" sheetId="2" r:id="rId1"/>
     <sheet name="GRAFIK LOAD VS KAP" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -290,7 +291,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
@@ -515,10 +516,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -867,7 +868,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -934,6 +935,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A326-2043-8618-C99112A5AA03}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -982,6 +988,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A326-2043-8618-C99112A5AA03}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1045,6 +1056,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A326-2043-8618-C99112A5AA03}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1163,7 +1179,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1182,26 +1204,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:N161" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="A2:N161"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:N161" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A2:N161" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="No" dataDxfId="13"/>
-    <tableColumn id="11" name="Month" dataDxfId="12"/>
-    <tableColumn id="13" name="Working Days" dataDxfId="11"/>
-    <tableColumn id="14" name="Company" dataDxfId="10"/>
-    <tableColumn id="2" name="Carline" dataDxfId="9"/>
-    <tableColumn id="3" name="CV" dataDxfId="8"/>
-    <tableColumn id="4" name="MH Out / Shift" dataDxfId="7"/>
-    <tableColumn id="5" name="Monthly Order" dataDxfId="6"/>
-    <tableColumn id="6" name="EFF" dataDxfId="5" dataCellStyle="Percent"/>
-    <tableColumn id="7" name="MP DL/SHIFT" dataDxfId="4"/>
-    <tableColumn id="8" name="SHIFT QTY" dataDxfId="3"/>
-    <tableColumn id="9" name="CAPACITY per Month" dataDxfId="2"/>
-    <tableColumn id="10" name="OT Plant / Month" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Month" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Working Days" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Company" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Carline" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CV" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="MH Out / Shift" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Monthly Order" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="EFF" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MP DL/SHIFT" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="SHIFT QTY" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="CAPACITY per Month" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="OT Plant / Month" dataDxfId="1">
       <calculatedColumnFormula>H3-L3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="ot_hour" dataDxfId="0">
-      <calculatedColumnFormula>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="ot_hour" dataDxfId="0">
+      <calculatedColumnFormula>M3/J3*C3/3600</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1284,6 +1306,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1319,6 +1358,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1494,52 +1550,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G146" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="G50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K87" sqref="K87"/>
+      <selection pane="bottomRight" activeCell="N66" sqref="N66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" style="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="31.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="18" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" customWidth="1"/>
-    <col min="12" max="12" width="21.109375" customWidth="1"/>
-    <col min="13" max="13" width="21.88671875" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" customWidth="1"/>
+    <col min="13" max="13" width="21.83203125" customWidth="1"/>
+    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+    </row>
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
@@ -1583,7 +1639,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1624,12 +1680,12 @@
         <f>H3-L3</f>
         <v>-1210.6721168232834</v>
       </c>
-      <c r="N3" s="31">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N3" s="30">
+        <f t="shared" ref="N3:N66" si="0">M3/J3*C3/3600</f>
         <v>-0.1205595923461341</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <f>+A3+1</f>
         <v>2</v>
@@ -1668,17 +1724,17 @@
         <v>17607.072</v>
       </c>
       <c r="M4" s="22">
-        <f t="shared" ref="M4:M18" si="0">H4-L4</f>
+        <f t="shared" ref="M4:M18" si="1">H4-L4</f>
         <v>-6692.5423709957886</v>
       </c>
-      <c r="N4" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N4" s="30">
+        <f t="shared" si="0"/>
         <v>-0.72085206943832192</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <f t="shared" ref="A5:A68" si="1">+A4+1</f>
+        <f t="shared" ref="A5:A68" si="2">+A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="14">
@@ -1718,14 +1774,14 @@
         <f>H5-L5</f>
         <v>-49.249991666666574</v>
       </c>
-      <c r="N5" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N5" s="30">
+        <f t="shared" si="0"/>
         <v>-1.5290030092592565E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B6" s="14">
@@ -1762,17 +1818,17 @@
         <v>422.21039999999999</v>
       </c>
       <c r="M6" s="22">
+        <f t="shared" si="1"/>
+        <v>-148.92900000000009</v>
+      </c>
+      <c r="N6" s="30">
         <f t="shared" si="0"/>
-        <v>-148.92900000000009</v>
-      </c>
-      <c r="N6" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
         <v>-0.39300708333333356</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B7" s="14">
@@ -1809,17 +1865,17 @@
         <v>1825.0868</v>
       </c>
       <c r="M7" s="22">
+        <f t="shared" si="1"/>
+        <v>-398.22979999999984</v>
+      </c>
+      <c r="N7" s="30">
         <f t="shared" si="0"/>
-        <v>-398.22979999999984</v>
-      </c>
-      <c r="N7" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
         <v>-0.42035367777777766</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B8" s="14">
@@ -1856,17 +1912,17 @@
         <v>628.82399999999984</v>
       </c>
       <c r="M8" s="22">
+        <f t="shared" si="1"/>
+        <v>-71.137699999999882</v>
+      </c>
+      <c r="N8" s="30">
         <f t="shared" si="0"/>
-        <v>-71.137699999999882</v>
-      </c>
-      <c r="N8" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
         <v>-0.25029931481481443</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B9" s="25">
@@ -1906,14 +1962,14 @@
         <f>H9-L9</f>
         <v>-1183.8637166666663</v>
       </c>
-      <c r="N9" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N9" s="30">
+        <f t="shared" si="0"/>
         <v>-0.78102120196759239</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B10" s="14">
@@ -1953,14 +2009,14 @@
         <f>H10-L10</f>
         <v>-537.64426666666668</v>
       </c>
-      <c r="N10" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N10" s="30">
+        <f t="shared" si="0"/>
         <v>-0.56751339259259259</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B11" s="14">
@@ -2000,14 +2056,14 @@
         <f>H11-L11</f>
         <v>-294.94296000000008</v>
       </c>
-      <c r="N11" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N11" s="30">
+        <f t="shared" si="0"/>
         <v>-0.51888113333333341</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B12" s="14">
@@ -2044,17 +2100,17 @@
         <v>741.11399999999981</v>
       </c>
       <c r="M12" s="22">
+        <f t="shared" si="1"/>
+        <v>-471.73179199999987</v>
+      </c>
+      <c r="N12" s="30">
         <f t="shared" si="0"/>
-        <v>-471.73179199999987</v>
-      </c>
-      <c r="N12" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
         <v>-0.82989852296296274</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B13" s="14">
@@ -2094,14 +2150,14 @@
         <f>H13-L13</f>
         <v>-191.42389153772729</v>
       </c>
-      <c r="N13" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N13" s="30">
+        <f t="shared" si="0"/>
         <v>-1.0102927608935606</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B14" s="14">
@@ -2138,17 +2194,17 @@
         <v>14519.246720000003</v>
       </c>
       <c r="M14" s="22">
+        <f t="shared" si="1"/>
+        <v>322.81475057771058</v>
+      </c>
+      <c r="N14" s="30">
         <f t="shared" si="0"/>
-        <v>322.81475057771058</v>
-      </c>
-      <c r="N14" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
         <v>3.872146629404357E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B15" s="14">
@@ -2185,17 +2241,17 @@
         <v>1194.7655999999999</v>
       </c>
       <c r="M15" s="22">
+        <f t="shared" si="1"/>
+        <v>-188.9022605759269</v>
+      </c>
+      <c r="N15" s="30">
         <f t="shared" si="0"/>
-        <v>-188.9022605759269</v>
-      </c>
-      <c r="N15" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
         <v>-0.16616402550660236</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B16" s="14">
@@ -2232,17 +2288,17 @@
         <v>7306.3359999999993</v>
       </c>
       <c r="M16" s="22">
+        <f t="shared" si="1"/>
+        <v>-1563.0731104909573</v>
+      </c>
+      <c r="N16" s="30">
         <f t="shared" si="0"/>
-        <v>-1563.0731104909573</v>
-      </c>
-      <c r="N16" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
         <v>-0.2062388131897791</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B17" s="14">
@@ -2282,14 +2338,14 @@
         <f>H17-L17</f>
         <v>-173.8711533333335</v>
       </c>
-      <c r="N17" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N17" s="30">
+        <f t="shared" si="0"/>
         <v>-4.3697776631393341E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B18" s="14">
@@ -2326,17 +2382,17 @@
         <v>20570.221105873017</v>
       </c>
       <c r="M18" s="23">
+        <f t="shared" si="1"/>
+        <v>-8693.3737871222238</v>
+      </c>
+      <c r="N18" s="30">
         <f t="shared" si="0"/>
-        <v>-8693.3737871222238</v>
-      </c>
-      <c r="N18" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
         <v>-0.77765584724727987</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B19" s="14">
@@ -2373,17 +2429,17 @@
         <v>24854.643655786553</v>
       </c>
       <c r="M19" s="23">
-        <f t="shared" ref="M19:M56" si="2">H19-L19</f>
+        <f t="shared" ref="M19:M56" si="3">H19-L19</f>
         <v>-4942.3886567298614</v>
       </c>
-      <c r="N19" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N19" s="30">
+        <f t="shared" si="0"/>
         <v>-0.33876401326791977</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B20" s="14">
@@ -2420,17 +2476,17 @@
         <v>25726.287939420992</v>
       </c>
       <c r="M20" s="23">
+        <f t="shared" si="3"/>
+        <v>-4474.6944079177774</v>
+      </c>
+      <c r="N20" s="30">
+        <f t="shared" si="0"/>
+        <v>-0.30670704816175243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
         <f t="shared" si="2"/>
-        <v>-4474.6944079177774</v>
-      </c>
-      <c r="N20" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.30670704816175243</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
-        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B21" s="14">
@@ -2467,17 +2523,17 @@
         <v>10320.701265206988</v>
       </c>
       <c r="M21" s="23">
+        <f t="shared" si="3"/>
+        <v>-2840.8616025008196</v>
+      </c>
+      <c r="N21" s="30">
+        <f t="shared" si="0"/>
+        <v>-0.24579403664624577</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
         <f t="shared" si="2"/>
-        <v>-2840.8616025008196</v>
-      </c>
-      <c r="N21" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.24579403664624577</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
-        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B22" s="14">
@@ -2514,17 +2570,17 @@
         <v>26579.941319999994</v>
       </c>
       <c r="M22" s="22">
+        <f t="shared" si="3"/>
+        <v>-7852.6120034166634</v>
+      </c>
+      <c r="N22" s="30">
+        <f t="shared" si="0"/>
+        <v>-0.46829763987732764</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
         <f t="shared" si="2"/>
-        <v>-7852.6120034166634</v>
-      </c>
-      <c r="N22" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.46829763987732764</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
-        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B23" s="14">
@@ -2561,17 +2617,17 @@
         <v>1940.3712</v>
       </c>
       <c r="M23" s="23">
+        <f t="shared" si="3"/>
+        <v>629.26451164473701</v>
+      </c>
+      <c r="N23" s="30">
+        <f t="shared" si="0"/>
+        <v>0.41513978198784734</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
         <f t="shared" si="2"/>
-        <v>629.26451164473701</v>
-      </c>
-      <c r="N23" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>0.41513978198784734</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
-        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B24" s="14">
@@ -2608,17 +2664,17 @@
         <v>256.02120000000002</v>
       </c>
       <c r="M24" s="22">
+        <f t="shared" si="3"/>
+        <v>-30.098050000000029</v>
+      </c>
+      <c r="N24" s="30">
+        <f t="shared" si="0"/>
+        <v>-0.1588508194444446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
         <f t="shared" si="2"/>
-        <v>-30.098050000000029</v>
-      </c>
-      <c r="N24" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.1588508194444446</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
-        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B25" s="14">
@@ -2643,17 +2699,17 @@
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
       <c r="M25" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="30" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N25" s="20" t="e">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
-        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B26" s="14">
@@ -2690,17 +2746,17 @@
         <v>8534.0399999999991</v>
       </c>
       <c r="M26" s="23">
+        <f t="shared" si="3"/>
+        <v>-3502.0240837236051</v>
+      </c>
+      <c r="N26" s="30">
+        <f t="shared" si="0"/>
+        <v>-0.30804841477198375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
         <f t="shared" si="2"/>
-        <v>-3502.0240837236051</v>
-      </c>
-      <c r="N26" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.30804841477198375</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
-        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B27" s="14">
@@ -2737,17 +2793,17 @@
         <v>1519.6579999999999</v>
       </c>
       <c r="M27" s="22">
+        <f t="shared" si="3"/>
+        <v>-770.99010499999986</v>
+      </c>
+      <c r="N27" s="30">
+        <f t="shared" si="0"/>
+        <v>-0.29065103164682538</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
         <f t="shared" si="2"/>
-        <v>-770.99010499999986</v>
-      </c>
-      <c r="N27" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.29065103164682538</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
-        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B28" s="14">
@@ -2784,17 +2840,17 @@
         <v>10860.688800000002</v>
       </c>
       <c r="M28" s="23">
+        <f t="shared" si="3"/>
+        <v>-2024.8876224662854</v>
+      </c>
+      <c r="N28" s="30">
+        <f t="shared" si="0"/>
+        <v>-0.27402325375255998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
         <f t="shared" si="2"/>
-        <v>-2024.8876224662854</v>
-      </c>
-      <c r="N28" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.27402325375255998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
-        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B29" s="14">
@@ -2819,17 +2875,17 @@
       <c r="K29" s="21"/>
       <c r="L29" s="21"/>
       <c r="M29" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="30" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="20" t="e">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
-        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B30" s="14">
@@ -2866,17 +2922,17 @@
         <v>2786.383296751515</v>
       </c>
       <c r="M30" s="22">
+        <f t="shared" si="3"/>
+        <v>-97.370538418181695</v>
+      </c>
+      <c r="N30" s="30">
+        <f t="shared" si="0"/>
+        <v>-5.1390006387373677E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
         <f t="shared" si="2"/>
-        <v>-97.370538418181695</v>
-      </c>
-      <c r="N30" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-5.1390006387373677E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
-        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B31" s="14">
@@ -2913,17 +2969,17 @@
         <v>3840.3180000000002</v>
       </c>
       <c r="M31" s="23">
+        <f t="shared" si="3"/>
+        <v>-257.6606860500483</v>
+      </c>
+      <c r="N31" s="30">
+        <f t="shared" si="0"/>
+        <v>-7.1572412791680085E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
         <f t="shared" si="2"/>
-        <v>-257.6606860500483</v>
-      </c>
-      <c r="N31" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-7.1572412791680085E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
-        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B32" s="14">
@@ -2960,17 +3016,17 @@
         <v>4748.5692150624009</v>
       </c>
       <c r="M32" s="22">
+        <f t="shared" si="3"/>
+        <v>-750.61372706240081</v>
+      </c>
+      <c r="N32" s="30">
+        <f t="shared" si="0"/>
+        <v>-0.15236817109172668</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
         <f t="shared" si="2"/>
-        <v>-750.61372706240081</v>
-      </c>
-      <c r="N32" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.15236817109172668</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
-        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B33" s="14">
@@ -3007,17 +3063,17 @@
         <v>1433.1011249999997</v>
       </c>
       <c r="M33" s="22">
+        <f t="shared" si="3"/>
+        <v>-147.4227416666663</v>
+      </c>
+      <c r="N33" s="30">
+        <f t="shared" si="0"/>
+        <v>-7.7806446990740546E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
         <f t="shared" si="2"/>
-        <v>-147.4227416666663</v>
-      </c>
-      <c r="N33" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-7.7806446990740546E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
-        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B34" s="14">
@@ -3054,17 +3110,17 @@
         <v>1320.5304000000001</v>
       </c>
       <c r="M34" s="22">
+        <f t="shared" si="3"/>
+        <v>-341.35516285572135</v>
+      </c>
+      <c r="N34" s="30">
+        <f t="shared" si="0"/>
+        <v>-0.25737095612137717</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
         <f t="shared" si="2"/>
-        <v>-341.35516285572135</v>
-      </c>
-      <c r="N34" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.25737095612137717</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
-        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B35" s="14">
@@ -3101,17 +3157,17 @@
         <v>176.50303650000001</v>
       </c>
       <c r="M35" s="22">
+        <f t="shared" si="3"/>
+        <v>-55.22765316666667</v>
+      </c>
+      <c r="N35" s="30">
+        <f t="shared" si="0"/>
+        <v>-0.29147928060185185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
         <f t="shared" si="2"/>
-        <v>-55.22765316666667</v>
-      </c>
-      <c r="N35" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.29147928060185185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
-        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B36" s="14">
@@ -3148,17 +3204,17 @@
         <v>16008.062400000001</v>
       </c>
       <c r="M36" s="22">
+        <f t="shared" si="3"/>
+        <v>-494.2047197214506</v>
+      </c>
+      <c r="N36" s="30">
+        <f t="shared" si="0"/>
+        <v>-4.8301901618866057E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
         <f t="shared" si="2"/>
-        <v>-494.2047197214506</v>
-      </c>
-      <c r="N36" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-4.8301901618866057E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
-        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B37" s="14">
@@ -3195,17 +3251,17 @@
         <v>16183.83368</v>
       </c>
       <c r="M37" s="22">
+        <f t="shared" si="3"/>
+        <v>-1242.2635125981396</v>
+      </c>
+      <c r="N37" s="30">
+        <f t="shared" si="0"/>
+        <v>-0.13380389308029847</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
         <f t="shared" si="2"/>
-        <v>-1242.2635125981396</v>
-      </c>
-      <c r="N37" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.13380389308029847</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
-        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B38" s="14">
@@ -3242,17 +3298,17 @@
         <v>20212.2</v>
       </c>
       <c r="M38" s="22">
+        <f t="shared" si="3"/>
+        <v>-2014.4648596010084</v>
+      </c>
+      <c r="N38" s="30">
+        <f t="shared" si="0"/>
+        <v>-0.23626439711369851</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
         <f t="shared" si="2"/>
-        <v>-2014.4648596010084</v>
-      </c>
-      <c r="N38" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.23626439711369851</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
-        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B39" s="14">
@@ -3289,17 +3345,17 @@
         <v>10512.129460906666</v>
       </c>
       <c r="M39" s="22">
+        <f t="shared" si="3"/>
+        <v>-5.8071242400001211</v>
+      </c>
+      <c r="N39" s="30">
+        <f t="shared" si="0"/>
+        <v>-9.5777222708335328E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
         <f t="shared" si="2"/>
-        <v>-5.8071242400001211</v>
-      </c>
-      <c r="N39" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-9.5777222708335328E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
-        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B40" s="14">
@@ -3336,17 +3392,17 @@
         <v>3027.3383999999996</v>
       </c>
       <c r="M40" s="22">
+        <f t="shared" si="3"/>
+        <v>1864.405426463768</v>
+      </c>
+      <c r="N40" s="30">
+        <f t="shared" si="0"/>
+        <v>0.49199587642793879</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
         <f t="shared" si="2"/>
-        <v>1864.405426463768</v>
-      </c>
-      <c r="N40" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>0.49199587642793879</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
-        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B41" s="14">
@@ -3383,17 +3439,17 @@
         <v>16184.732</v>
       </c>
       <c r="M41" s="23">
+        <f t="shared" si="3"/>
+        <v>-3118.0213683646743</v>
+      </c>
+      <c r="N41" s="30">
+        <f t="shared" si="0"/>
+        <v>-0.35013242316151783</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
         <f t="shared" si="2"/>
-        <v>-3118.0213683646743</v>
-      </c>
-      <c r="N41" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.35013242316151783</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
-        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B42" s="14">
@@ -3418,17 +3474,17 @@
       <c r="K42" s="20"/>
       <c r="L42" s="20"/>
       <c r="M42" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="30" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N42" s="20" t="e">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
-        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B43" s="14">
@@ -3465,17 +3521,17 @@
         <v>11237.983199999999</v>
       </c>
       <c r="M43" s="22">
+        <f t="shared" si="3"/>
+        <v>-787.41329067155493</v>
+      </c>
+      <c r="N43" s="30">
+        <f t="shared" si="0"/>
+        <v>-0.15391823583085951</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
         <f t="shared" si="2"/>
-        <v>-787.41329067155493</v>
-      </c>
-      <c r="N43" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.15391823583085951</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
-        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B44" s="14">
@@ -3512,17 +3568,17 @@
         <v>6563.7248</v>
       </c>
       <c r="M44" s="22">
+        <f t="shared" si="3"/>
+        <v>-2935.0261496768362</v>
+      </c>
+      <c r="N44" s="30">
+        <f t="shared" si="0"/>
+        <v>-0.96815098687256751</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
         <f t="shared" si="2"/>
-        <v>-2935.0261496768362</v>
-      </c>
-      <c r="N44" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.96815098687256751</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
-        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B45" s="14">
@@ -3559,17 +3615,17 @@
         <v>9583.4021473760004</v>
       </c>
       <c r="M45" s="22">
+        <f t="shared" si="3"/>
+        <v>-1601.0746440426683</v>
+      </c>
+      <c r="N45" s="30">
+        <f t="shared" si="0"/>
+        <v>-0.22838151829437461</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
         <f t="shared" si="2"/>
-        <v>-1601.0746440426683</v>
-      </c>
-      <c r="N45" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.22838151829437461</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
-        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B46" s="14">
@@ -3606,17 +3662,17 @@
         <v>21539.211599136001</v>
       </c>
       <c r="M46" s="22">
+        <f t="shared" si="3"/>
+        <v>-40.335257330720196</v>
+      </c>
+      <c r="N46" s="30">
+        <f t="shared" si="0"/>
+        <v>-3.1305959529562247E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
         <f t="shared" si="2"/>
-        <v>-40.335257330720196</v>
-      </c>
-      <c r="N46" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-3.1305959529562247E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
-        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B47" s="14">
@@ -3641,14 +3697,14 @@
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
       <c r="M47" s="22"/>
-      <c r="N47" s="20" t="e">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N47" s="30" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="B48" s="14">
@@ -3685,17 +3741,17 @@
         <v>20114.197599936</v>
       </c>
       <c r="M48" s="22">
+        <f t="shared" si="3"/>
+        <v>-8569.3160443431389</v>
+      </c>
+      <c r="N48" s="30">
+        <f t="shared" si="0"/>
+        <v>-0.68525675438770894</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
         <f t="shared" si="2"/>
-        <v>-8569.3160443431389</v>
-      </c>
-      <c r="N48" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.68525675438770894</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
-        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B49" s="14">
@@ -3732,17 +3788,17 @@
         <v>6213.3841139108172</v>
       </c>
       <c r="M49" s="22">
+        <f t="shared" si="3"/>
+        <v>-641.37124724415025</v>
+      </c>
+      <c r="N49" s="30">
+        <f t="shared" si="0"/>
+        <v>-0.11098409560691125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
         <f t="shared" si="2"/>
-        <v>-641.37124724415025</v>
-      </c>
-      <c r="N49" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.11098409560691125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
-        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B50" s="14">
@@ -3779,17 +3835,17 @@
         <v>24318.20625266667</v>
       </c>
       <c r="M50" s="22">
+        <f t="shared" si="3"/>
+        <v>4225.5324208027123</v>
+      </c>
+      <c r="N50" s="30">
+        <f t="shared" si="0"/>
+        <v>0.37799018830156089</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
         <f t="shared" si="2"/>
-        <v>4225.5324208027123</v>
-      </c>
-      <c r="N50" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>0.37799018830156089</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
-        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B51" s="14">
@@ -3826,17 +3882,17 @@
         <v>10511.642427000001</v>
       </c>
       <c r="M51" s="22">
+        <f t="shared" si="3"/>
+        <v>-2909.3795337639913</v>
+      </c>
+      <c r="N51" s="30">
+        <f t="shared" si="0"/>
+        <v>-0.25172227295772237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
         <f t="shared" si="2"/>
-        <v>-2909.3795337639913</v>
-      </c>
-      <c r="N51" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.25172227295772237</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="6">
-        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B52" s="14">
@@ -3873,17 +3929,17 @@
         <v>26240.400000000001</v>
       </c>
       <c r="M52" s="22">
+        <f t="shared" si="3"/>
+        <v>-9599.9935187088995</v>
+      </c>
+      <c r="N52" s="30">
+        <f t="shared" si="0"/>
+        <v>-0.84444387433087542</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
         <f t="shared" si="2"/>
-        <v>-9599.9935187088995</v>
-      </c>
-      <c r="N52" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.84444387433087542</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="6">
-        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B53" s="14">
@@ -3920,17 +3976,17 @@
         <v>13287.65</v>
       </c>
       <c r="M53" s="22">
+        <f t="shared" si="3"/>
+        <v>-63.024213333334046</v>
+      </c>
+      <c r="N53" s="30">
+        <f t="shared" si="0"/>
+        <v>-9.3697969744393345E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
         <f t="shared" si="2"/>
-        <v>-63.024213333334046</v>
-      </c>
-      <c r="N53" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-9.3697969744393345E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="6">
-        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B54" s="14">
@@ -3967,17 +4023,17 @@
         <v>17086.352277960003</v>
       </c>
       <c r="M54" s="22">
+        <f t="shared" si="3"/>
+        <v>394.50480451689873</v>
+      </c>
+      <c r="N54" s="30">
+        <f t="shared" si="0"/>
+        <v>3.3049344293743725E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
         <f t="shared" si="2"/>
-        <v>394.50480451689873</v>
-      </c>
-      <c r="N54" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>3.3049344293743725E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="6">
-        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B55" s="14">
@@ -4002,17 +4058,17 @@
       <c r="K55" s="21"/>
       <c r="L55" s="21"/>
       <c r="M55" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="30" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N55" s="20" t="e">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="6">
-        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B56" s="19">
@@ -4049,17 +4105,17 @@
         <v>20046.72</v>
       </c>
       <c r="M56" s="22">
+        <f t="shared" si="3"/>
+        <v>-3904.2281120000007</v>
+      </c>
+      <c r="N56" s="30">
+        <f t="shared" si="0"/>
+        <v>-0.40924822976939218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
         <f t="shared" si="2"/>
-        <v>-3904.2281120000007</v>
-      </c>
-      <c r="N56" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.40924822976939218</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="6">
-        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B57" s="19">
@@ -4096,17 +4152,17 @@
         <v>18533.759999999998</v>
       </c>
       <c r="M57" s="22">
-        <f t="shared" ref="M57" si="3">H57-L57</f>
+        <f t="shared" ref="M57" si="4">H57-L57</f>
         <v>-4108.1682569999994</v>
       </c>
-      <c r="N57" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N57" s="30">
+        <f t="shared" si="0"/>
         <v>-0.46577871394557818</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="B58" s="19">
@@ -4146,14 +4202,14 @@
         <f>H58-L58</f>
         <v>-1133.2611400000005</v>
       </c>
-      <c r="N58" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N58" s="30">
+        <f t="shared" si="0"/>
         <v>-0.29980453439153448</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="B59" s="19">
@@ -4190,17 +4246,17 @@
         <v>444.43199999999996</v>
       </c>
       <c r="M59" s="22">
-        <f t="shared" ref="M59:M61" si="4">H59-L59</f>
+        <f t="shared" ref="M59:M61" si="5">H59-L59</f>
         <v>-121.97315000000003</v>
       </c>
-      <c r="N59" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N59" s="30">
+        <f t="shared" si="0"/>
         <v>-0.33881430555555564</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="B60" s="19">
@@ -4237,17 +4293,17 @@
         <v>1816.2608941154576</v>
       </c>
       <c r="M60" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-590.59796078212412</v>
       </c>
-      <c r="N60" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N60" s="30">
+        <f t="shared" si="0"/>
         <v>-0.65621995642458231</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="B61" s="19">
@@ -4284,17 +4340,17 @@
         <v>582.6467692167771</v>
       </c>
       <c r="M61" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>71.064822449889562</v>
       </c>
-      <c r="N61" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N61" s="30">
+        <f t="shared" si="0"/>
         <v>0.26320304611070211</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="B62" s="25">
@@ -4334,14 +4390,14 @@
         <f>H62-L62</f>
         <v>-989.35001459220666</v>
       </c>
-      <c r="N62" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N62" s="30">
+        <f t="shared" si="0"/>
         <v>-0.68704862124458788</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="B63" s="25">
@@ -4381,14 +4437,14 @@
         <f>H63-L63</f>
         <v>-64.022717013983538</v>
       </c>
-      <c r="N63" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N63" s="30">
+        <f t="shared" si="0"/>
         <v>-7.1136352237759493E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="B64" s="19">
@@ -4428,14 +4484,14 @@
         <f>H64-L64</f>
         <v>-366.02813724242424</v>
       </c>
-      <c r="N64" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N64" s="30">
+        <f t="shared" si="0"/>
         <v>-0.67782988378226705</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="B65" s="19">
@@ -4472,17 +4528,17 @@
         <v>780.11999999999989</v>
       </c>
       <c r="M65" s="22">
-        <f t="shared" ref="M65" si="5">H65-L65</f>
+        <f t="shared" ref="M65" si="6">H65-L65</f>
         <v>-547.98380399999985</v>
       </c>
-      <c r="N65" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N65" s="30">
+        <f t="shared" si="0"/>
         <v>-1.014784822222222</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="B66" s="19">
@@ -4522,14 +4578,14 @@
         <f>H66-L66</f>
         <v>-208.49531176363635</v>
       </c>
-      <c r="N66" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N66" s="30">
+        <f t="shared" si="0"/>
         <v>-1.1583072875757574</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="B67" s="19">
@@ -4566,17 +4622,17 @@
         <v>15471.285776895995</v>
       </c>
       <c r="M67" s="22">
-        <f t="shared" ref="M67:M69" si="6">H67-L67</f>
+        <f t="shared" ref="M67:M69" si="7">H67-L67</f>
         <v>-2370.0381081335181</v>
       </c>
-      <c r="N67" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N67" s="30">
+        <f t="shared" ref="N67:N130" si="8">M67/J67*C67/3600</f>
         <v>-0.29924723587544427</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="B68" s="19">
@@ -4613,17 +4669,17 @@
         <v>1257.6480000000001</v>
       </c>
       <c r="M68" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-191.64008831775755</v>
       </c>
-      <c r="N68" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N68" s="30">
+        <f t="shared" si="8"/>
         <v>-0.17744452622014589</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
-        <f t="shared" ref="A69:A132" si="7">+A68+1</f>
+        <f t="shared" ref="A69:A132" si="9">+A68+1</f>
         <v>67</v>
       </c>
       <c r="B69" s="19">
@@ -4660,17 +4716,17 @@
         <v>7690.88</v>
       </c>
       <c r="M69" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>64.448337999999239</v>
       </c>
-      <c r="N69" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N69" s="30">
+        <f t="shared" si="8"/>
         <v>8.9511580555554499E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>68</v>
       </c>
       <c r="B70" s="19">
@@ -4710,14 +4766,14 @@
         <f>H70-L70</f>
         <v>423.56764833333182</v>
       </c>
-      <c r="N70" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N70" s="30">
+        <f t="shared" si="8"/>
         <v>0.13073075565843575</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>69</v>
       </c>
       <c r="B71" s="19">
@@ -4754,17 +4810,17 @@
         <v>21219.807035532169</v>
       </c>
       <c r="M71" s="22">
-        <f t="shared" ref="M71" si="8">H71-L71</f>
+        <f t="shared" ref="M71" si="10">H71-L71</f>
         <v>-5568.1682534332849</v>
       </c>
-      <c r="N71" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N71" s="30">
+        <f t="shared" si="8"/>
         <v>-0.52430962838354855</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
       <c r="B72" s="19">
@@ -4801,17 +4857,17 @@
         <v>25901.154967609145</v>
       </c>
       <c r="M72" s="22">
-        <f t="shared" ref="M72:M109" si="9">H72-L72</f>
+        <f t="shared" ref="M72:M109" si="11">H72-L72</f>
         <v>1330.4014026412697</v>
       </c>
-      <c r="N72" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N72" s="30">
+        <f t="shared" si="8"/>
         <v>9.5988557189124801E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>71</v>
       </c>
       <c r="B73" s="19">
@@ -4848,17 +4904,17 @@
         <v>26809.500063186086</v>
       </c>
       <c r="M73" s="22">
+        <f t="shared" si="11"/>
+        <v>1531.238221839325</v>
+      </c>
+      <c r="N73" s="30">
+        <f t="shared" si="8"/>
+        <v>0.11047894818465548</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="6">
         <f t="shared" si="9"/>
-        <v>1531.238221839325</v>
-      </c>
-      <c r="N73" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>0.11047894818465548</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74" s="6">
-        <f t="shared" si="7"/>
         <v>72</v>
       </c>
       <c r="B74" s="19">
@@ -4895,17 +4951,17 @@
         <v>10755.257107952541</v>
       </c>
       <c r="M74" s="22">
+        <f t="shared" si="11"/>
+        <v>-258.25237711920818</v>
+      </c>
+      <c r="N74" s="30">
+        <f t="shared" si="8"/>
+        <v>-2.3520252925246649E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="6">
         <f t="shared" si="9"/>
-        <v>-258.25237711920818</v>
-      </c>
-      <c r="N74" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-2.3520252925246649E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A75" s="6">
-        <f t="shared" si="7"/>
         <v>73</v>
       </c>
       <c r="B75" s="19">
@@ -4942,17 +4998,17 @@
         <v>30673.372799999997</v>
       </c>
       <c r="M75" s="22">
+        <f t="shared" si="11"/>
+        <v>-1894.4546843333301</v>
+      </c>
+      <c r="N75" s="30">
+        <f t="shared" si="8"/>
+        <v>-0.10739539026832937</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
         <f t="shared" si="9"/>
-        <v>-1894.4546843333301</v>
-      </c>
-      <c r="N75" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.10739539026832937</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A76" s="6">
-        <f t="shared" si="7"/>
         <v>74</v>
       </c>
       <c r="B76" s="19">
@@ -4989,17 +5045,17 @@
         <v>2042.4960000000003</v>
       </c>
       <c r="M76" s="22">
+        <f t="shared" si="11"/>
+        <v>689.75334300064401</v>
+      </c>
+      <c r="N76" s="30">
+        <f t="shared" si="8"/>
+        <v>0.47899537708378059</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
         <f t="shared" si="9"/>
-        <v>689.75334300064401</v>
-      </c>
-      <c r="N76" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>0.47899537708378059</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77" s="6">
-        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="B77" s="19">
@@ -5036,17 +5092,17 @@
         <v>269.81119999999999</v>
       </c>
       <c r="M77" s="22">
+        <f t="shared" si="11"/>
+        <v>-26.06207999999998</v>
+      </c>
+      <c r="N77" s="30">
+        <f t="shared" si="8"/>
+        <v>-0.14478933333333321</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" s="6">
         <f t="shared" si="9"/>
-        <v>-26.06207999999998</v>
-      </c>
-      <c r="N77" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.14478933333333321</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A78" s="6">
-        <f t="shared" si="7"/>
         <v>76</v>
       </c>
       <c r="B78" s="19">
@@ -5071,17 +5127,17 @@
       <c r="K78" s="20"/>
       <c r="L78" s="20"/>
       <c r="M78" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N78" s="30" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N78" s="20" t="e">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="6">
-        <f t="shared" si="7"/>
         <v>77</v>
       </c>
       <c r="B79" s="19">
@@ -5118,17 +5174,17 @@
         <v>8534.0399999999991</v>
       </c>
       <c r="M79" s="22">
+        <f t="shared" si="11"/>
+        <v>-3650.3317501847741</v>
+      </c>
+      <c r="N79" s="30">
+        <f t="shared" si="8"/>
+        <v>-0.33799368057266427</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" s="6">
         <f t="shared" si="9"/>
-        <v>-3650.3317501847741</v>
-      </c>
-      <c r="N79" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.33799368057266427</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="6">
-        <f t="shared" si="7"/>
         <v>78</v>
       </c>
       <c r="B80" s="19">
@@ -5165,17 +5221,17 @@
         <v>1629.1695000984469</v>
       </c>
       <c r="M80" s="22">
+        <f t="shared" si="11"/>
+        <v>-895.69325343178025</v>
+      </c>
+      <c r="N80" s="30">
+        <f t="shared" si="8"/>
+        <v>-0.35543383072689688</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" s="6">
         <f t="shared" si="9"/>
-        <v>-895.69325343178025</v>
-      </c>
-      <c r="N80" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.35543383072689688</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A81" s="6">
-        <f t="shared" si="7"/>
         <v>79</v>
       </c>
       <c r="B81" s="19">
@@ -5212,17 +5268,17 @@
         <v>11432.304000000002</v>
       </c>
       <c r="M81" s="22">
+        <f t="shared" si="11"/>
+        <v>-3296.4450144262109</v>
+      </c>
+      <c r="N81" s="30">
+        <f t="shared" si="8"/>
+        <v>-0.46957906188407567</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" s="6">
         <f t="shared" si="9"/>
-        <v>-3296.4450144262109</v>
-      </c>
-      <c r="N81" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.46957906188407567</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="6">
-        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="B82" s="19">
@@ -5247,17 +5303,17 @@
       <c r="K82" s="20"/>
       <c r="L82" s="20"/>
       <c r="M82" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N82" s="30" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N82" s="20" t="e">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="6">
-        <f t="shared" si="7"/>
         <v>81</v>
       </c>
       <c r="B83" s="19">
@@ -5294,17 +5350,17 @@
         <v>2948.9466317575752</v>
       </c>
       <c r="M83" s="22">
+        <f t="shared" si="11"/>
+        <v>-464.13079842424213</v>
+      </c>
+      <c r="N83" s="30">
+        <f t="shared" si="8"/>
+        <v>-0.25785044356902342</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
         <f t="shared" si="9"/>
-        <v>-464.13079842424213</v>
-      </c>
-      <c r="N83" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.25785044356902342</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A84" s="6">
-        <f t="shared" si="7"/>
         <v>82</v>
       </c>
       <c r="B84" s="19">
@@ -5341,17 +5397,17 @@
         <v>4042.44</v>
       </c>
       <c r="M84" s="22">
+        <f t="shared" si="11"/>
+        <v>-2664.1810471666668</v>
+      </c>
+      <c r="N84" s="30">
+        <f t="shared" si="8"/>
+        <v>-0.77900030618908378</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85" s="6">
         <f t="shared" si="9"/>
-        <v>-2664.1810471666668</v>
-      </c>
-      <c r="N84" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.77900030618908378</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="6">
-        <f t="shared" si="7"/>
         <v>83</v>
       </c>
       <c r="B85" s="19">
@@ -5388,17 +5444,17 @@
         <v>5003.1741483360001</v>
       </c>
       <c r="M85" s="22">
+        <f t="shared" si="11"/>
+        <v>-3001.6359623360004</v>
+      </c>
+      <c r="N85" s="30">
+        <f t="shared" si="8"/>
+        <v>-0.64137520562735051</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86" s="6">
         <f t="shared" si="9"/>
-        <v>-3001.6359623360004</v>
-      </c>
-      <c r="N85" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.64137520562735051</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86" s="6">
-        <f t="shared" si="7"/>
         <v>84</v>
       </c>
       <c r="B86" s="19">
@@ -5435,17 +5491,17 @@
         <v>1508.5274999999997</v>
       </c>
       <c r="M86" s="22">
+        <f t="shared" si="11"/>
+        <v>-898.36399833333303</v>
+      </c>
+      <c r="N86" s="30">
+        <f t="shared" si="8"/>
+        <v>-0.49909111018518504</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" s="6">
         <f t="shared" si="9"/>
-        <v>-898.36399833333303</v>
-      </c>
-      <c r="N86" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.49909111018518504</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A87" s="6">
-        <f t="shared" si="7"/>
         <v>85</v>
       </c>
       <c r="B87" s="19">
@@ -5482,17 +5538,17 @@
         <v>1395.5479999999998</v>
       </c>
       <c r="M87" s="22">
+        <f t="shared" si="11"/>
+        <v>-396.94656932850216</v>
+      </c>
+      <c r="N87" s="30">
+        <f t="shared" si="8"/>
+        <v>-0.31503695978452551</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" s="6">
         <f t="shared" si="9"/>
-        <v>-396.94656932850216</v>
-      </c>
-      <c r="N87" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.31503695978452551</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="6">
-        <f t="shared" si="7"/>
         <v>86</v>
       </c>
       <c r="B88" s="19">
@@ -5529,17 +5585,17 @@
         <v>186.53584068000001</v>
       </c>
       <c r="M88" s="22">
+        <f t="shared" si="11"/>
+        <v>-65.260457346666669</v>
+      </c>
+      <c r="N88" s="30">
+        <f t="shared" si="8"/>
+        <v>-0.3625580963703704</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" s="6">
         <f t="shared" si="9"/>
-        <v>-65.260457346666669</v>
-      </c>
-      <c r="N88" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.3625580963703704</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="6">
-        <f t="shared" si="7"/>
         <v>87</v>
       </c>
       <c r="B89" s="19">
@@ -5576,17 +5632,17 @@
         <v>16765.487999999998</v>
       </c>
       <c r="M89" s="22">
+        <f t="shared" si="11"/>
+        <v>471.79226666667091</v>
+      </c>
+      <c r="N89" s="30">
+        <f t="shared" si="8"/>
+        <v>4.8538299039780963E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90" s="6">
         <f t="shared" si="9"/>
-        <v>471.79226666667091</v>
-      </c>
-      <c r="N89" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>4.8538299039780963E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A90" s="6">
-        <f t="shared" si="7"/>
         <v>88</v>
       </c>
       <c r="B90" s="19">
@@ -5623,17 +5679,17 @@
         <v>16642.274938850907</v>
       </c>
       <c r="M90" s="22">
+        <f t="shared" si="11"/>
+        <v>3.1402024824274122</v>
+      </c>
+      <c r="N90" s="30">
+        <f t="shared" si="8"/>
+        <v>3.5603202748610112E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91" s="6">
         <f t="shared" si="9"/>
-        <v>3.1402024824274122</v>
-      </c>
-      <c r="N90" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>3.5603202748610112E-4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A91" s="6">
-        <f t="shared" si="7"/>
         <v>89</v>
       </c>
       <c r="B91" s="19">
@@ -5670,17 +5726,17 @@
         <v>19964.830844739739</v>
       </c>
       <c r="M91" s="22">
+        <f t="shared" si="11"/>
+        <v>-1965.5585408694023</v>
+      </c>
+      <c r="N91" s="30">
+        <f t="shared" si="8"/>
+        <v>-0.24266154825548178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
         <f t="shared" si="9"/>
-        <v>-1965.5585408694023</v>
-      </c>
-      <c r="N91" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.24266154825548178</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="6">
-        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="B92" s="19">
@@ -5717,17 +5773,17 @@
         <v>11094.417088387878</v>
       </c>
       <c r="M92" s="22">
+        <f t="shared" si="11"/>
+        <v>925.56626661212067</v>
+      </c>
+      <c r="N92" s="30">
+        <f t="shared" si="8"/>
+        <v>0.16068858795349317</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" s="6">
         <f t="shared" si="9"/>
-        <v>925.56626661212067</v>
-      </c>
-      <c r="N92" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>0.16068858795349317</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="6">
-        <f t="shared" si="7"/>
         <v>91</v>
       </c>
       <c r="B93" s="19">
@@ -5764,17 +5820,17 @@
         <v>3186.6719999999996</v>
       </c>
       <c r="M93" s="22">
+        <f t="shared" si="11"/>
+        <v>907.75555423707374</v>
+      </c>
+      <c r="N93" s="30">
+        <f t="shared" si="8"/>
+        <v>0.25215432062140936</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94" s="6">
         <f t="shared" si="9"/>
-        <v>907.75555423707374</v>
-      </c>
-      <c r="N93" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>0.25215432062140936</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="6">
-        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="B94" s="19">
@@ -5811,17 +5867,17 @@
         <v>17036.560000000001</v>
       </c>
       <c r="M94" s="22">
+        <f t="shared" si="11"/>
+        <v>1128.2591844237759</v>
+      </c>
+      <c r="N94" s="30">
+        <f t="shared" si="8"/>
+        <v>0.13336396979004442</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95" s="6">
         <f t="shared" si="9"/>
-        <v>1128.2591844237759</v>
-      </c>
-      <c r="N94" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>0.13336396979004442</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="6">
-        <f t="shared" si="7"/>
         <v>93</v>
       </c>
       <c r="B95" s="19">
@@ -5846,17 +5902,17 @@
       <c r="K95" s="20"/>
       <c r="L95" s="20"/>
       <c r="M95" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N95" s="30" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N95" s="20" t="e">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A96" s="6">
-        <f t="shared" si="7"/>
         <v>94</v>
       </c>
       <c r="B96" s="19">
@@ -5893,17 +5949,17 @@
         <v>10515.072</v>
       </c>
       <c r="M96" s="22">
+        <f t="shared" si="11"/>
+        <v>-921.46729933333336</v>
+      </c>
+      <c r="N96" s="30">
+        <f t="shared" si="8"/>
+        <v>-0.21330261558641975</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A97" s="6">
         <f t="shared" si="9"/>
-        <v>-921.46729933333336</v>
-      </c>
-      <c r="N96" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.21330261558641975</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A97" s="6">
-        <f t="shared" si="7"/>
         <v>95</v>
       </c>
       <c r="B97" s="19">
@@ -5940,17 +5996,17 @@
         <v>5081.8902704640004</v>
       </c>
       <c r="M97" s="22">
+        <f t="shared" si="11"/>
+        <v>-434.09305646400026</v>
+      </c>
+      <c r="N97" s="30">
+        <f t="shared" si="8"/>
+        <v>-0.20096900762222231</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A98" s="6">
         <f t="shared" si="9"/>
-        <v>-434.09305646400026</v>
-      </c>
-      <c r="N97" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.20096900762222231</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A98" s="6">
-        <f t="shared" si="7"/>
         <v>96</v>
       </c>
       <c r="B98" s="19">
@@ -5987,17 +6043,17 @@
         <v>9005.3179622400003</v>
       </c>
       <c r="M98" s="22">
+        <f t="shared" si="11"/>
+        <v>-304.15503224000167</v>
+      </c>
+      <c r="N98" s="30">
+        <f t="shared" si="8"/>
+        <v>-5.1204550882155163E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A99" s="6">
         <f t="shared" si="9"/>
-        <v>-304.15503224000167</v>
-      </c>
-      <c r="N98" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-5.1204550882155163E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="6">
-        <f t="shared" si="7"/>
         <v>97</v>
       </c>
       <c r="B99" s="19">
@@ -6034,17 +6090,17 @@
         <v>22741.186533911998</v>
       </c>
       <c r="M99" s="22">
+        <f t="shared" si="11"/>
+        <v>-2659.5287339120041</v>
+      </c>
+      <c r="N99" s="30">
+        <f t="shared" si="8"/>
+        <v>-0.21728175930653632</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A100" s="6">
         <f t="shared" si="9"/>
-        <v>-2659.5287339120041</v>
-      </c>
-      <c r="N99" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.21728175930653632</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A100" s="6">
-        <f t="shared" si="7"/>
         <v>98</v>
       </c>
       <c r="B100" s="19">
@@ -6069,17 +6125,17 @@
       <c r="K100" s="20"/>
       <c r="L100" s="20"/>
       <c r="M100" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N100" s="30" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N100" s="20" t="e">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A101" s="6">
-        <f t="shared" si="7"/>
         <v>99</v>
       </c>
       <c r="B101" s="19">
@@ -6116,17 +6172,17 @@
         <v>17002.43178304</v>
       </c>
       <c r="M101" s="22">
+        <f t="shared" si="11"/>
+        <v>-2826.2093163733334</v>
+      </c>
+      <c r="N101" s="30">
+        <f t="shared" si="8"/>
+        <v>-0.29624835601397626</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A102" s="6">
         <f t="shared" si="9"/>
-        <v>-2826.2093163733334</v>
-      </c>
-      <c r="N101" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.29624835601397626</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A102" s="6">
-        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="B102" s="19">
@@ -6163,17 +6219,17 @@
         <v>6569.6797923387494</v>
       </c>
       <c r="M102" s="22">
+        <f t="shared" si="11"/>
+        <v>-1196.7887256720824</v>
+      </c>
+      <c r="N102" s="30">
+        <f t="shared" si="8"/>
+        <v>-0.2179943034011079</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A103" s="6">
         <f t="shared" si="9"/>
-        <v>-1196.7887256720824</v>
-      </c>
-      <c r="N102" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.2179943034011079</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="6">
-        <f t="shared" si="7"/>
         <v>101</v>
       </c>
       <c r="B103" s="19">
@@ -6210,17 +6266,17 @@
         <v>18515.107385243638</v>
       </c>
       <c r="M103" s="22">
+        <f t="shared" si="11"/>
+        <v>1158.5310600282282</v>
+      </c>
+      <c r="N103" s="30">
+        <f t="shared" si="8"/>
+        <v>0.10908955367497442</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A104" s="6">
         <f t="shared" si="9"/>
-        <v>1158.5310600282282</v>
-      </c>
-      <c r="N103" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>0.10908955367497442</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" s="6">
-        <f t="shared" si="7"/>
         <v>102</v>
       </c>
       <c r="B104" s="19">
@@ -6257,17 +6313,17 @@
         <v>5382.0701804</v>
       </c>
       <c r="M104" s="22">
+        <f t="shared" si="11"/>
+        <v>-1747.2967733090913</v>
+      </c>
+      <c r="N104" s="30">
+        <f t="shared" si="8"/>
+        <v>-0.23676108039418584</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A105" s="6">
         <f t="shared" si="9"/>
-        <v>-1747.2967733090913</v>
-      </c>
-      <c r="N104" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.23676108039418584</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A105" s="6">
-        <f t="shared" si="7"/>
         <v>103</v>
       </c>
       <c r="B105" s="19">
@@ -6304,17 +6360,17 @@
         <v>16951.298400000003</v>
       </c>
       <c r="M105" s="22">
+        <f t="shared" si="11"/>
+        <v>-6627.6234550867612</v>
+      </c>
+      <c r="N105" s="30">
+        <f t="shared" si="8"/>
+        <v>-0.72196333933406986</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A106" s="6">
         <f t="shared" si="9"/>
-        <v>-6627.6234550867612</v>
-      </c>
-      <c r="N105" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.72196333933406986</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A106" s="6">
-        <f t="shared" si="7"/>
         <v>104</v>
       </c>
       <c r="B106" s="19">
@@ -6351,17 +6407,17 @@
         <v>7231.9716735683278</v>
       </c>
       <c r="M106" s="22">
+        <f t="shared" si="11"/>
+        <v>1184.3808480983398</v>
+      </c>
+      <c r="N106" s="30">
+        <f t="shared" si="8"/>
+        <v>0.18534911550834737</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A107" s="6">
         <f t="shared" si="9"/>
-        <v>1184.3808480983398</v>
-      </c>
-      <c r="N106" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>0.18534911550834737</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A107" s="6">
-        <f t="shared" si="7"/>
         <v>105</v>
       </c>
       <c r="B107" s="19">
@@ -6398,17 +6454,17 @@
         <v>17724.580357427996</v>
       </c>
       <c r="M107" s="22">
+        <f t="shared" si="11"/>
+        <v>3120.924282572003</v>
+      </c>
+      <c r="N107" s="30">
+        <f t="shared" si="8"/>
+        <v>0.27521378153192266</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A108" s="6">
         <f t="shared" si="9"/>
-        <v>3120.924282572003</v>
-      </c>
-      <c r="N107" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>0.27521378153192266</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" s="6">
-        <f t="shared" si="7"/>
         <v>106</v>
       </c>
       <c r="B108" s="19">
@@ -6433,17 +6489,17 @@
       <c r="K108" s="21"/>
       <c r="L108" s="21"/>
       <c r="M108" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N108" s="30" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A109" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N108" s="20" t="e">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="6">
-        <f t="shared" si="7"/>
         <v>107</v>
       </c>
       <c r="B109" s="19">
@@ -6480,17 +6536,17 @@
         <v>25058.399999999998</v>
       </c>
       <c r="M109" s="22">
+        <f t="shared" si="11"/>
+        <v>-6555.5717609999956</v>
+      </c>
+      <c r="N109" s="30">
+        <f t="shared" si="8"/>
+        <v>-0.85895856407232651</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A110" s="6">
         <f t="shared" si="9"/>
-        <v>-6555.5717609999956</v>
-      </c>
-      <c r="N109" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
-        <v>-0.85895856407232651</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A110" s="6">
-        <f t="shared" si="7"/>
         <v>108</v>
       </c>
       <c r="B110" s="19">
@@ -6527,17 +6583,17 @@
         <v>23167.200000000001</v>
       </c>
       <c r="M110" s="22">
-        <f t="shared" ref="M110" si="10">H110-L110</f>
+        <f t="shared" ref="M110" si="12">H110-L110</f>
         <v>-1327.7318049404457</v>
       </c>
-      <c r="N110" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N110" s="30">
+        <f t="shared" si="8"/>
         <v>-0.18817060727614024</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>109</v>
       </c>
       <c r="B111" s="19">
@@ -6577,14 +6633,14 @@
         <f>H111-L111</f>
         <v>-1288.1733233333334</v>
       </c>
-      <c r="N111" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N111" s="30">
+        <f t="shared" si="8"/>
         <v>-0.4259832418430336</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
       <c r="B112" s="19">
@@ -6621,17 +6677,17 @@
         <v>555.54</v>
       </c>
       <c r="M112" s="22">
-        <f t="shared" ref="M112:M114" si="11">H112-L112</f>
+        <f t="shared" ref="M112:M114" si="13">H112-L112</f>
         <v>-233.08115000000004</v>
       </c>
-      <c r="N112" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N112" s="30">
+        <f t="shared" si="8"/>
         <v>-0.80930954861111126</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>111</v>
       </c>
       <c r="B113" s="19">
@@ -6668,17 +6724,17 @@
         <v>2270.326117644322</v>
       </c>
       <c r="M113" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1080.5164509776553</v>
       </c>
-      <c r="N113" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N113" s="30">
+        <f t="shared" si="8"/>
         <v>-1.5007172930245212</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>112</v>
       </c>
       <c r="B114" s="19">
@@ -6715,17 +6771,17 @@
         <v>728.30846152097138</v>
       </c>
       <c r="M114" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-11.275161520971437</v>
       </c>
-      <c r="N114" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N114" s="30">
+        <f t="shared" si="8"/>
         <v>-5.2199821856349249E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>113</v>
       </c>
       <c r="B115" s="25">
@@ -6765,14 +6821,14 @@
         <f>H115-L115</f>
         <v>-1400.1097099959884</v>
       </c>
-      <c r="N115" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N115" s="30">
+        <f t="shared" si="8"/>
         <v>-1.2153730121492956</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>114</v>
       </c>
       <c r="B116" s="25">
@@ -6812,14 +6868,14 @@
         <f>H116-L116</f>
         <v>36.879418315854082</v>
       </c>
-      <c r="N116" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N116" s="30">
+        <f t="shared" si="8"/>
         <v>5.1221414327575113E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>115</v>
       </c>
       <c r="B117" s="19">
@@ -6859,14 +6915,14 @@
         <f>H117-L117</f>
         <v>-571.08855660606025</v>
       </c>
-      <c r="N117" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N117" s="30">
+        <f t="shared" si="8"/>
         <v>-1.3219642514029173</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>116</v>
       </c>
       <c r="B118" s="19">
@@ -6903,17 +6959,17 @@
         <v>975.14999999999986</v>
       </c>
       <c r="M118" s="22">
-        <f t="shared" ref="M118" si="12">H118-L118</f>
+        <f t="shared" ref="M118" si="14">H118-L118</f>
         <v>-715.77125599999988</v>
       </c>
-      <c r="N118" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N118" s="30">
+        <f t="shared" si="8"/>
         <v>-1.6568779074074071</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>117</v>
       </c>
       <c r="B119" s="19">
@@ -6953,14 +7009,14 @@
         <f>H119-L119</f>
         <v>-265.03877580681819</v>
       </c>
-      <c r="N119" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N119" s="30">
+        <f t="shared" si="8"/>
         <v>-1.8405470542140152</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>118</v>
       </c>
       <c r="B120" s="19">
@@ -6997,17 +7053,17 @@
         <v>20179.093164999998</v>
       </c>
       <c r="M120" s="22">
-        <f t="shared" ref="M120:M122" si="13">H120-L120</f>
+        <f t="shared" ref="M120:M122" si="15">H120-L120</f>
         <v>-4433.4482450028972</v>
       </c>
-      <c r="N120" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N120" s="30">
+        <f t="shared" si="8"/>
         <v>-0.69972352351687139</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>119</v>
       </c>
       <c r="B121" s="19">
@@ -7044,17 +7100,17 @@
         <v>1572.06</v>
       </c>
       <c r="M121" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-495.60644000000002</v>
       </c>
-      <c r="N121" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N121" s="30">
+        <f t="shared" si="8"/>
         <v>-0.57361856481481477</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>120</v>
       </c>
       <c r="B122" s="19">
@@ -7091,17 +7147,17 @@
         <v>9613.6</v>
       </c>
       <c r="M122" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-943.07209566666825</v>
       </c>
-      <c r="N122" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N122" s="30">
+        <f t="shared" si="8"/>
         <v>-0.16372779438657434</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>121</v>
       </c>
       <c r="B123" s="19">
@@ -7141,14 +7197,14 @@
         <f>H123-L123</f>
         <v>-378.27905666666265</v>
       </c>
-      <c r="N123" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N123" s="30">
+        <f t="shared" si="8"/>
         <v>-0.14594099408436056</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>122</v>
       </c>
       <c r="B124" s="19">
@@ -7185,17 +7241,17 @@
         <v>26651.448189469302</v>
       </c>
       <c r="M124" s="22">
-        <f t="shared" ref="M124" si="14">H124-L124</f>
+        <f t="shared" ref="M124" si="16">H124-L124</f>
         <v>-6116.0946056065804</v>
       </c>
-      <c r="N124" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N124" s="30">
+        <f t="shared" si="8"/>
         <v>-0.71987930856951277</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>123</v>
       </c>
       <c r="B125" s="19">
@@ -7232,17 +7288,17 @@
         <v>32560.130150071429</v>
       </c>
       <c r="M125" s="22">
-        <f t="shared" ref="M125:M161" si="15">H125-L125</f>
+        <f t="shared" ref="M125:M161" si="17">H125-L125</f>
         <v>719.78372092857535</v>
       </c>
-      <c r="N125" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N125" s="30">
+        <f t="shared" si="8"/>
         <v>6.491555924680513E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>124</v>
       </c>
       <c r="B126" s="19">
@@ -7279,17 +7335,17 @@
         <v>33670.320038774604</v>
       </c>
       <c r="M126" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-197.15731310794217</v>
       </c>
-      <c r="N126" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N126" s="30">
+        <f t="shared" si="8"/>
         <v>-1.7781142957065493E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>125</v>
       </c>
       <c r="B127" s="19">
@@ -7326,17 +7382,17 @@
         <v>13494.268943001283</v>
       </c>
       <c r="M127" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1232.0057569987148</v>
       </c>
-      <c r="N127" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N127" s="30">
+        <f t="shared" si="8"/>
         <v>0.14025566450349666</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>126</v>
       </c>
       <c r="B128" s="19">
@@ -7373,17 +7429,17 @@
         <v>38727.835999999988</v>
       </c>
       <c r="M128" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-3470.6951183333222</v>
       </c>
-      <c r="N128" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N128" s="30">
+        <f t="shared" si="8"/>
         <v>-0.2459392799272479</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>127</v>
       </c>
       <c r="B129" s="19">
@@ -7420,17 +7476,17 @@
         <v>0</v>
       </c>
       <c r="M129" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N129" s="20" t="e">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N129" s="30" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>128</v>
       </c>
       <c r="B130" s="19">
@@ -7467,17 +7523,17 @@
         <v>0</v>
       </c>
       <c r="M130" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N130" s="20" t="e">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N130" s="30" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>129</v>
       </c>
       <c r="B131" s="19">
@@ -7502,17 +7558,17 @@
       <c r="K131" s="20"/>
       <c r="L131" s="20"/>
       <c r="M131" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N131" s="20" t="e">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N131" s="30" t="e">
+        <f t="shared" ref="N131:N161" si="18">M131/J131*C131/3600</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>130</v>
       </c>
       <c r="B132" s="19">
@@ -7549,17 +7605,17 @@
         <v>11229</v>
       </c>
       <c r="M132" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-5339.7254608333324</v>
       </c>
-      <c r="N132" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N132" s="30">
+        <f t="shared" si="18"/>
         <v>-0.61802378018904314</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
-        <f t="shared" ref="A133:A161" si="16">+A132+1</f>
+        <f t="shared" ref="A133:A161" si="19">+A132+1</f>
         <v>131</v>
       </c>
       <c r="B133" s="19">
@@ -7596,17 +7652,17 @@
         <v>2122.6577427999996</v>
       </c>
       <c r="M133" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1313.0443194666664</v>
       </c>
-      <c r="N133" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N133" s="30">
+        <f t="shared" si="18"/>
         <v>-0.65131166640211635</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>132</v>
       </c>
       <c r="B134" s="19">
@@ -7643,17 +7699,17 @@
         <v>14290.380000000001</v>
       </c>
       <c r="M134" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-4962.7779616382013</v>
       </c>
-      <c r="N134" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N134" s="30">
+        <f t="shared" si="18"/>
         <v>-0.88368553447973675</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>133</v>
       </c>
       <c r="B135" s="19">
@@ -7678,17 +7734,17 @@
       <c r="K135" s="20"/>
       <c r="L135" s="20"/>
       <c r="M135" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N135" s="20" t="e">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N135" s="30" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>134</v>
       </c>
       <c r="B136" s="19">
@@ -7725,17 +7781,17 @@
         <v>3706.0727678787862</v>
       </c>
       <c r="M136" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-927.77953787878641</v>
       </c>
-      <c r="N136" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N136" s="30">
+        <f t="shared" si="18"/>
         <v>-0.64429134574915725</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>135</v>
       </c>
       <c r="B137" s="19">
@@ -7772,17 +7828,17 @@
         <v>0</v>
       </c>
       <c r="M137" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N137" s="20" t="e">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N137" s="30" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>136</v>
       </c>
       <c r="B138" s="19">
@@ -7819,17 +7875,17 @@
         <v>0</v>
       </c>
       <c r="M138" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N138" s="20" t="e">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N138" s="30" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>137</v>
       </c>
       <c r="B139" s="19">
@@ -7866,17 +7922,17 @@
         <v>0</v>
       </c>
       <c r="M139" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N139" s="20" t="e">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N139" s="30" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>138</v>
       </c>
       <c r="B140" s="19">
@@ -7913,17 +7969,17 @@
         <v>1676.9387417999999</v>
       </c>
       <c r="M140" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-566.56463855467541</v>
       </c>
-      <c r="N140" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N140" s="30">
+        <f t="shared" si="18"/>
         <v>-0.5620680938042415</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>139</v>
       </c>
       <c r="B141" s="19">
@@ -7960,17 +8016,17 @@
         <v>234.09876420000001</v>
       </c>
       <c r="M141" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-103.21763753333332</v>
       </c>
-      <c r="N141" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N141" s="30">
+        <f t="shared" si="18"/>
         <v>-0.71678914953703687</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>140</v>
       </c>
       <c r="B142" s="19">
@@ -8009,14 +8065,14 @@
       <c r="M142" s="22">
         <v>2039.8864685156877</v>
       </c>
-      <c r="N142" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N142" s="30">
+        <f t="shared" si="18"/>
         <v>0.26233107877002154</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>141</v>
       </c>
       <c r="B143" s="19">
@@ -8055,14 +8111,14 @@
       <c r="M143" s="22">
         <v>17.312141806058207</v>
       </c>
-      <c r="N143" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N143" s="30">
+        <f t="shared" si="18"/>
         <v>2.4535348364594966E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>142</v>
       </c>
       <c r="B144" s="19">
@@ -8101,14 +8157,14 @@
       <c r="M144" s="22">
         <v>633.81030189784724</v>
       </c>
-      <c r="N144" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N144" s="30">
+        <f t="shared" si="18"/>
         <v>9.7810231774359144E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>143</v>
       </c>
       <c r="B145" s="19">
@@ -8147,14 +8203,14 @@
       <c r="M145" s="22">
         <v>1014.1443546969695</v>
       </c>
-      <c r="N145" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N145" s="30">
+        <f t="shared" si="18"/>
         <v>0.22008341030750203</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>144</v>
       </c>
       <c r="B146" s="19">
@@ -8191,17 +8247,17 @@
         <v>5576.6759999999995</v>
       </c>
       <c r="M146" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1695.4148079999991</v>
       </c>
-      <c r="N146" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N146" s="30">
+        <f t="shared" si="18"/>
         <v>-0.4204897837301585</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>145</v>
       </c>
       <c r="B147" s="19">
@@ -8238,17 +8294,17 @@
         <v>21295.7</v>
       </c>
       <c r="M147" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-3681.2972399999999</v>
       </c>
-      <c r="N147" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N147" s="30">
+        <f t="shared" si="18"/>
         <v>-0.54392689716312059</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>146</v>
       </c>
       <c r="B148" s="19">
@@ -8273,17 +8329,17 @@
       <c r="K148" s="20"/>
       <c r="L148" s="20"/>
       <c r="M148" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N148" s="20" t="e">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N148" s="30" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>147</v>
       </c>
       <c r="B149" s="19">
@@ -8320,17 +8376,17 @@
         <v>13143.84</v>
       </c>
       <c r="M149" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>284.53032933333452</v>
       </c>
-      <c r="N149" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N149" s="30">
+        <f t="shared" si="18"/>
         <v>8.2329377700617642E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>148</v>
       </c>
       <c r="B150" s="19">
@@ -8367,17 +8423,17 @@
         <v>6352.362838080001</v>
       </c>
       <c r="M150" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-491.23147008000069</v>
       </c>
-      <c r="N150" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N150" s="30">
+        <f t="shared" si="18"/>
         <v>-0.28427747111111151</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>149</v>
       </c>
       <c r="B151" s="19">
@@ -8414,17 +8470,17 @@
         <v>11266.770337200001</v>
       </c>
       <c r="M151" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1204.3278072000012</v>
       </c>
-      <c r="N151" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N151" s="30">
+        <f t="shared" si="18"/>
         <v>-0.25343598636363662</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>150</v>
       </c>
       <c r="B152" s="19">
@@ -8461,17 +8517,17 @@
         <v>28473.002597013336</v>
       </c>
       <c r="M152" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2676.0539170133379</v>
       </c>
-      <c r="N152" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N152" s="30">
+        <f t="shared" si="18"/>
         <v>-0.27328981995642748</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>151</v>
       </c>
       <c r="B153" s="19">
@@ -8496,17 +8552,17 @@
       <c r="K153" s="20"/>
       <c r="L153" s="20"/>
       <c r="M153" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N153" s="20" t="e">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N153" s="30" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>152</v>
       </c>
       <c r="B154" s="19">
@@ -8543,17 +8599,17 @@
         <v>21345.635167790904</v>
       </c>
       <c r="M154" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1149.0490744575727</v>
       </c>
-      <c r="N154" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N154" s="30">
+        <f t="shared" si="18"/>
         <v>-0.15055674455680987</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>153</v>
       </c>
       <c r="B155" s="19">
@@ -8590,17 +8646,17 @@
         <v>8248.6940678063238</v>
       </c>
       <c r="M155" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1726.0884944729896</v>
       </c>
-      <c r="N155" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N155" s="30">
+        <f t="shared" si="18"/>
         <v>-0.39300739855942385</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>154</v>
       </c>
       <c r="B156" s="19">
@@ -8637,17 +8693,17 @@
         <v>19551.837827144001</v>
       </c>
       <c r="M156" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3712.1633728559973</v>
       </c>
-      <c r="N156" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N156" s="30">
+        <f t="shared" si="18"/>
         <v>0.43693071714406745</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>155</v>
       </c>
       <c r="B157" s="19">
@@ -8684,17 +8740,17 @@
         <v>5714.9983594052883</v>
       </c>
       <c r="M157" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1590.5908994052879</v>
       </c>
-      <c r="N157" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N157" s="30">
+        <f t="shared" si="18"/>
         <v>-0.26777910397493765</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>156</v>
       </c>
       <c r="B158" s="19">
@@ -8731,17 +8787,17 @@
         <v>17843.472000000002</v>
       </c>
       <c r="M158" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-3483.8020208478811</v>
       </c>
-      <c r="N158" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N158" s="30">
+        <f t="shared" si="18"/>
         <v>-0.4743739135141451</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>157</v>
       </c>
       <c r="B159" s="19">
@@ -8778,17 +8834,17 @@
         <v>7646.6764796073958</v>
       </c>
       <c r="M159" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2773.0202403926023</v>
       </c>
-      <c r="N159" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N159" s="30">
+        <f t="shared" si="18"/>
         <v>0.54245309866834945</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>158</v>
       </c>
       <c r="B160" s="19">
@@ -8825,17 +8881,17 @@
         <v>22155.725446784996</v>
       </c>
       <c r="M160" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3147.9046065483381</v>
       </c>
-      <c r="N160" s="20">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N160" s="30">
+        <f t="shared" si="18"/>
         <v>0.34699124851723306</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>159</v>
       </c>
       <c r="B161" s="19">
@@ -8860,11 +8916,11 @@
       <c r="K161" s="21"/>
       <c r="L161" s="21"/>
       <c r="M161" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N161" s="21" t="e">
-        <f>Table1[[#This Row],[OT Plant / Month]]/Table1[[#This Row],[MP DL/SHIFT]]*Table1[[#This Row],[Working Days]]/3600</f>
+      <c r="N161" s="30" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8874,9 +8930,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="N25" evalError="1"/>
-  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -8884,21 +8937,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8906,7 +8959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8920,7 +8973,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8934,7 +8987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8948,7 +9001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>16</v>
@@ -8978,7 +9031,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -9004,7 +9057,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
@@ -9028,7 +9081,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -9052,7 +9105,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -9078,7 +9131,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -9104,7 +9157,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -9128,7 +9181,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
@@ -9152,7 +9205,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -9185,12 +9238,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
